--- a/Excel Assignment/SUM 3.xlsx
+++ b/Excel Assignment/SUM 3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhavs\Downloads\EXCEL_ASSIGNMENT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/14dd1702bc555a24/Desktop/git/DA/Excel Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA14EF6F-FA81-4599-8AE2-60E84043A76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{CA14EF6F-FA81-4599-8AE2-60E84043A76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8A52A22-04F1-477D-81D8-823AFEF79C6B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E4B56F38-D64E-4259-B219-6B5B05364F51}"/>
   </bookViews>
@@ -631,7 +631,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -715,12 +715,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1232,7 +1226,7 @@
   <dimension ref="A1:F182"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
